--- a/data/trans_orig/P1411-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>14930</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8537</v>
+        <v>8609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27400</v>
+        <v>25393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02122388434438613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01213513778064077</v>
+        <v>0.01223846029977678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03894933441223684</v>
+        <v>0.03609668259254027</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -763,19 +763,19 @@
         <v>9710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5152</v>
+        <v>4460</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17817</v>
+        <v>18272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01392945123482879</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007391717241496707</v>
+        <v>0.006398114331867912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02556102083911621</v>
+        <v>0.02621388046683093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -784,19 +784,19 @@
         <v>24640</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14745</v>
+        <v>15968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36196</v>
+        <v>36541</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0175933840274293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01052848923943606</v>
+        <v>0.01140137135470739</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02584445861623442</v>
+        <v>0.02609090658324055</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>688539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676069</v>
+        <v>678076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>694932</v>
+        <v>694860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9787761156556138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.961050665587763</v>
+        <v>0.9639033174074594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9878648622193592</v>
+        <v>0.987761539700223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>641</v>
@@ -834,19 +834,19 @@
         <v>687340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679233</v>
+        <v>678778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>691898</v>
+        <v>692590</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9860705487651712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9744389791608847</v>
+        <v>0.9737861195331695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9926082827585033</v>
+        <v>0.993601885668132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1302</v>
@@ -855,19 +855,19 @@
         <v>1375879</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1364323</v>
+        <v>1363978</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1385774</v>
+        <v>1384551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9824066159725707</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9741555413837656</v>
+        <v>0.9739090934167595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9894715107605639</v>
+        <v>0.9885986286452926</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>21928</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13001</v>
+        <v>13423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34387</v>
+        <v>34509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02154108049494641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01277196463715923</v>
+        <v>0.01318623002045402</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03378049029344804</v>
+        <v>0.03390102322908431</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -980,19 +980,19 @@
         <v>9667</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4348</v>
+        <v>4452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17513</v>
+        <v>17575</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009405617291651472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00423007151374991</v>
+        <v>0.004331580035162533</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01703938012798715</v>
+        <v>0.01709986756777923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1001,19 +1001,19 @@
         <v>31595</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20346</v>
+        <v>20696</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44876</v>
+        <v>45169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01544415287256749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009945505124864635</v>
+        <v>0.01011671704928288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02193631445793332</v>
+        <v>0.0220794065493253</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>996019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>983560</v>
+        <v>983438</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1004946</v>
+        <v>1004524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9784589195050536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9662195097065516</v>
+        <v>0.9660989767709155</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872280353628408</v>
+        <v>0.9868137699795455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>928</v>
@@ -1051,19 +1051,19 @@
         <v>1018124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1010278</v>
+        <v>1010216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1023443</v>
+        <v>1023339</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9905943827083485</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9829606198720129</v>
+        <v>0.9829001324322207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9957699284862501</v>
+        <v>0.9956684199648376</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1845</v>
@@ -1072,19 +1072,19 @@
         <v>2014143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2000862</v>
+        <v>2000569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2025392</v>
+        <v>2025042</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9845558471274325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9780636855420667</v>
+        <v>0.9779205934506749</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9900544948751353</v>
+        <v>0.9898832829507171</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>10335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5114</v>
+        <v>5166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17642</v>
+        <v>18153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01364122279121526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006749546931031333</v>
+        <v>0.006819099612796333</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02328533441769999</v>
+        <v>0.02396001413041469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>7809</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3350</v>
+        <v>3412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16128</v>
+        <v>16374</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01004745728629492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004311077191852599</v>
+        <v>0.00439020484025301</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02075191838496202</v>
+        <v>0.02106852259403313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>18144</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9913</v>
+        <v>10840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27836</v>
+        <v>28148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01182145082680262</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006458797457887373</v>
+        <v>0.007062572360130868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01813657146983666</v>
+        <v>0.01834001642871817</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>747288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739981</v>
+        <v>739470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752509</v>
+        <v>752457</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9863587772087847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9767146655823</v>
+        <v>0.976039985869585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9932504530689686</v>
+        <v>0.9931809003872036</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>698</v>
@@ -1268,19 +1268,19 @@
         <v>769365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>761046</v>
+        <v>760800</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>773824</v>
+        <v>773762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.989952542713705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9792480816150381</v>
+        <v>0.9789314774059669</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9956889228081475</v>
+        <v>0.995609795159747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1377</v>
@@ -1289,19 +1289,19 @@
         <v>1516653</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506961</v>
+        <v>1506649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1524884</v>
+        <v>1523957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9881785491731974</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9818634285301633</v>
+        <v>0.9816599835712817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9935412025421125</v>
+        <v>0.992937427639869</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>23444</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15060</v>
+        <v>14350</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35740</v>
+        <v>34660</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0247362707362174</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01589087355313343</v>
+        <v>0.01514171086292148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03771071646270265</v>
+        <v>0.03657154128714254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1414,19 +1414,19 @@
         <v>10991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5075</v>
+        <v>6003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18183</v>
+        <v>19745</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01044866249792693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004824399501095592</v>
+        <v>0.005706989290103986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01728617509217085</v>
+        <v>0.01877053779777683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1435,19 +1435,19 @@
         <v>34434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24890</v>
+        <v>24251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49331</v>
+        <v>48578</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01722034454257381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01244733027750256</v>
+        <v>0.01212779479171717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0246700610440177</v>
+        <v>0.02429360512152811</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>924295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911999</v>
+        <v>913079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932679</v>
+        <v>933389</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9752637292637826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.962289283537297</v>
+        <v>0.9634284587128572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9841091264468665</v>
+        <v>0.9848582891370784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>992</v>
@@ -1485,19 +1485,19 @@
         <v>1040910</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1033718</v>
+        <v>1032156</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1046826</v>
+        <v>1045898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.989551337502073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9827138249078289</v>
+        <v>0.9812294622022232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951756004989044</v>
+        <v>0.9942930107098961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1880</v>
@@ -1506,19 +1506,19 @@
         <v>1965206</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1950309</v>
+        <v>1951062</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1974750</v>
+        <v>1975389</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9827796554574262</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9753299389559822</v>
+        <v>0.975706394878472</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9875526697224974</v>
+        <v>0.9878722052082829</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>70636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54455</v>
+        <v>54937</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89446</v>
+        <v>90636</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0206130817852493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01589114116732287</v>
+        <v>0.01603160196711035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02610206729284628</v>
+        <v>0.02644943730033504</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1631,19 +1631,19 @@
         <v>38176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27581</v>
+        <v>27185</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53502</v>
+        <v>53006</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01074198558200681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007760751412921431</v>
+        <v>0.007649202574002363</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0150544481864663</v>
+        <v>0.01491470250922162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1652,19 +1652,19 @@
         <v>108813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87439</v>
+        <v>89514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132410</v>
+        <v>134203</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01558764437698421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01252576309711328</v>
+        <v>0.01282313836057377</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01896801043737251</v>
+        <v>0.01922489305009959</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3356143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3337333</v>
+        <v>3336143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3372324</v>
+        <v>3371842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9793869182147507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9738979327071537</v>
+        <v>0.9735505626996648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.984108858832677</v>
+        <v>0.9839683980328896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3259</v>
@@ -1702,19 +1702,19 @@
         <v>3515740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3500414</v>
+        <v>3500910</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3526335</v>
+        <v>3526731</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9892580144179932</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9849455518135337</v>
+        <v>0.9850852974907784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9922392485870787</v>
+        <v>0.9923507974259979</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6404</v>
@@ -1723,19 +1723,19 @@
         <v>6871881</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6848284</v>
+        <v>6846491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6893255</v>
+        <v>6891180</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9844123556230158</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9810319895626275</v>
+        <v>0.9807751069499003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9874742369028866</v>
+        <v>0.9871768616394262</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>15379</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9191</v>
+        <v>9287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26113</v>
+        <v>25397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02279114767952069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01361987296592702</v>
+        <v>0.01376231252950655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03869751998907595</v>
+        <v>0.03763603229042393</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2088,19 +2088,19 @@
         <v>10843</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5269</v>
+        <v>5524</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19745</v>
+        <v>19857</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01611542688880634</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007830454680841573</v>
+        <v>0.008209315337127213</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02934584793511768</v>
+        <v>0.02951271226331697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2109,19 +2109,19 @@
         <v>26223</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17334</v>
+        <v>17239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38017</v>
+        <v>38774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01945814433471491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0128628647097879</v>
+        <v>0.01279192515108883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0282097480600095</v>
+        <v>0.02877198265194596</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>659421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>648687</v>
+        <v>649403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665609</v>
+        <v>665513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9772088523204793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9613024800109239</v>
+        <v>0.9623639677095761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9863801270340727</v>
+        <v>0.9862376874704935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>656</v>
@@ -2159,19 +2159,19 @@
         <v>661996</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>653094</v>
+        <v>652982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>667570</v>
+        <v>667315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9838845731111937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9706541520648831</v>
+        <v>0.9704872877366826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9921695453191586</v>
+        <v>0.9917906846628728</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1292</v>
@@ -2180,19 +2180,19 @@
         <v>1321416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1309622</v>
+        <v>1308865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1330305</v>
+        <v>1330400</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9805418556652851</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9717902519399901</v>
+        <v>0.9712280173480535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9871371352902121</v>
+        <v>0.987208074848911</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>18263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10912</v>
+        <v>11023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28104</v>
+        <v>27795</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01786262451241534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01067212204107266</v>
+        <v>0.01078102959142239</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02748771623390641</v>
+        <v>0.02718493949061246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2305,19 +2305,19 @@
         <v>16818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10207</v>
+        <v>9044</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26884</v>
+        <v>26607</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0161256344648563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009787222250282968</v>
+        <v>0.008671871350806862</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02577772403839128</v>
+        <v>0.02551193117985579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -2326,19 +2326,19 @@
         <v>35081</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23882</v>
+        <v>24003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48998</v>
+        <v>48978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01698551662609578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0115632077066894</v>
+        <v>0.01162189966468796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02372399165881889</v>
+        <v>0.02371399661357087</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1004168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>994327</v>
+        <v>994636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011519</v>
+        <v>1011408</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9821373754875846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9725122837660937</v>
+        <v>0.9728150605093876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9893278779589274</v>
+        <v>0.9892189704085776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>963</v>
@@ -2376,19 +2376,19 @@
         <v>1026095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1016029</v>
+        <v>1016306</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032706</v>
+        <v>1033869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9838743655351437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9742222759616088</v>
+        <v>0.9744880688201444</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9902127777497171</v>
+        <v>0.9913281286491933</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1896</v>
@@ -2397,19 +2397,19 @@
         <v>2030263</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2016346</v>
+        <v>2016366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2041462</v>
+        <v>2041341</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9830144833739042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9762760083411812</v>
+        <v>0.9762860033864291</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9884367922933106</v>
+        <v>0.9883781003353118</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>11231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5892</v>
+        <v>5720</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19561</v>
+        <v>19590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01478598720038505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00775774404432799</v>
+        <v>0.007531337181633311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02575281224561226</v>
+        <v>0.02579186566026396</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2522,19 +2522,19 @@
         <v>6839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2371</v>
+        <v>3114</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13567</v>
+        <v>15076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008712083172148841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003019875421170825</v>
+        <v>0.003966363700592656</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0172829247071476</v>
+        <v>0.01920492692162365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2543,19 +2543,19 @@
         <v>18070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10671</v>
+        <v>10951</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28465</v>
+        <v>28802</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01169897789759359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006909042949214016</v>
+        <v>0.007089979858099242</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01842883842085493</v>
+        <v>0.01864737140941913</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>748321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739991</v>
+        <v>739962</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753660</v>
+        <v>753832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.985214012799615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9742471877543878</v>
+        <v>0.9742081343397353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9922422559556719</v>
+        <v>0.9924686628183667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>730</v>
@@ -2593,19 +2593,19 @@
         <v>778172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>771444</v>
+        <v>769935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782640</v>
+        <v>781897</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9912879168278511</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9827170752928525</v>
+        <v>0.9807950730783763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9969801245788291</v>
+        <v>0.9960336362994073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1415</v>
@@ -2614,19 +2614,19 @@
         <v>1526493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1516098</v>
+        <v>1515761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1533892</v>
+        <v>1533612</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9883010221024064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.981571161579145</v>
+        <v>0.9813526285905809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993090957050786</v>
+        <v>0.9929100201419008</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>21901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13974</v>
+        <v>14540</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32343</v>
+        <v>33365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02335941148051192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01490454648345001</v>
+        <v>0.01550807933111626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03449725361070966</v>
+        <v>0.03558683645980355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -2739,19 +2739,19 @@
         <v>10051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4444</v>
+        <v>4687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18170</v>
+        <v>18499</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009629518746367156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004257686896578045</v>
+        <v>0.004490854586867576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01740752768880487</v>
+        <v>0.01772344024153926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -2760,19 +2760,19 @@
         <v>31952</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22271</v>
+        <v>21869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44870</v>
+        <v>44952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01612646287042389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01124035316552622</v>
+        <v>0.01103737752125973</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02264646889842018</v>
+        <v>0.02268746666761418</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>915666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>905224</v>
+        <v>904202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923593</v>
+        <v>923027</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9766405885194881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.96550274638929</v>
+        <v>0.9644131635401965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9850954535165499</v>
+        <v>0.9844919206688837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>950</v>
@@ -2810,19 +2810,19 @@
         <v>1033728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1025609</v>
+        <v>1025280</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1039335</v>
+        <v>1039092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9903704812536328</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9825924723111952</v>
+        <v>0.9822765597584608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.995742313103422</v>
+        <v>0.9955091454131324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1860</v>
@@ -2831,19 +2831,19 @@
         <v>1949394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1936476</v>
+        <v>1936394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1959075</v>
+        <v>1959477</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9838735371295761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.977353531101579</v>
+        <v>0.9773125333323857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9887596468344735</v>
+        <v>0.9889626224787402</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>66775</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52262</v>
+        <v>52161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86593</v>
+        <v>83942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01967225099307931</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01539665724187915</v>
+        <v>0.01536709509836435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02551082475248932</v>
+        <v>0.02473006492716175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -2956,19 +2956,19 @@
         <v>44551</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31598</v>
+        <v>31871</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60551</v>
+        <v>59844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01256887126363109</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008914492141554915</v>
+        <v>0.008991449897761171</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01708279397779573</v>
+        <v>0.01688345805007661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -2977,19 +2977,19 @@
         <v>111325</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90934</v>
+        <v>91109</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133524</v>
+        <v>132483</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01604368514360648</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01310501771838528</v>
+        <v>0.01313024554139002</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0192428113423527</v>
+        <v>0.0190927638453506</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3327575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3307757</v>
+        <v>3310408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3342088</v>
+        <v>3342189</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9803277490069207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9744891752475107</v>
+        <v>0.9752699350728382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9846033427581209</v>
+        <v>0.9846329049016357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3299</v>
@@ -3027,19 +3027,19 @@
         <v>3499991</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3483991</v>
+        <v>3484698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3512944</v>
+        <v>3512671</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.987431128736369</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9829172060222046</v>
+        <v>0.9831165419499235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9910855078584452</v>
+        <v>0.9910085501022389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6463</v>
@@ -3048,19 +3048,19 @@
         <v>6827567</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6805368</v>
+        <v>6806409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6847958</v>
+        <v>6847783</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9839563148563936</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9807571886576475</v>
+        <v>0.9809072361546494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.986894982281615</v>
+        <v>0.9868697544586099</v>
       </c>
     </row>
     <row r="18">
